--- a/data/spending_by_category.xlsx
+++ b/data/spending_by_category.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,16 +516,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44557.77202546296</v>
+        <v>44516.90290509259</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27.12.2021</t>
+          <t>17.11.2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>*5091</t>
+          <t>*4556</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-123</v>
+        <v>-456</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -542,14 +542,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-123</v>
+        <v>-456</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>22</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -560,31 +562,31 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Apteka 23</t>
+          <t>Аптека Вита</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>123</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44546.61982638889</v>
+        <v>44516.63884259259</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16.12.2021</t>
+          <t>16.11.2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>*7197</t>
+          <t>*4556</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -593,7 +595,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-431</v>
+        <v>-609</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -601,14 +603,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-431</v>
+        <v>-609</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>30</v>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -623,27 +627,27 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>431</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44541.48259259259</v>
+        <v>44508.57086805555</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.12.2021</t>
+          <t>08.11.2021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>*7197</t>
+          <t>*4556</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -652,7 +656,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-360.5</v>
+        <v>-1249</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -660,14 +664,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-360.5</v>
+        <v>-1249</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>62</v>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -682,22 +688,22 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>360.5</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44533.61783564815</v>
+        <v>44473.4015625</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>03.12.2021</t>
+          <t>04.10.2021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -711,7 +717,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-496.3</v>
+        <v>-389.8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -719,7 +725,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-496.3</v>
+        <v>-389.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -737,31 +743,31 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Аптека Вита</t>
+          <t>Горздрав</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>496.3</v>
+        <v>389.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44530.44567129629</v>
+        <v>44460.39407407407</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.11.2021</t>
+          <t>21.09.2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -770,7 +776,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-103</v>
+        <v>-99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -778,16 +784,14 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-103</v>
+        <v>-99</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -802,27 +806,27 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44525.89533564815</v>
+        <v>44460.39310185185</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26.11.2021</t>
+          <t>21.09.2021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -831,7 +835,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-300</v>
+        <v>-61</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -839,16 +843,14 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-300</v>
+        <v>-61</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -859,31 +861,31 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Университетская аптека</t>
+          <t>Аптека Вита</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>300</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44525.86628472222</v>
+        <v>44455.73447916667</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26.11.2021</t>
+          <t>16.09.2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -892,7 +894,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-151.9</v>
+        <v>-202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -900,16 +902,14 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-151.9</v>
+        <v>-202</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -920,31 +920,31 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Apteka</t>
+          <t>Аптека Вита</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>151.9</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44525.85362268519</v>
+        <v>44455.72469907408</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25.11.2021</t>
+          <t>16.09.2021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-681</v>
+        <v>-698</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -961,16 +961,14 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-681</v>
+        <v>-698</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>34</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -985,27 +983,27 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>681</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44516.90290509259</v>
+        <v>44452.41373842592</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17.11.2021</t>
+          <t>13.09.2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1014,7 +1012,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-456</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1022,16 +1020,14 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-456</v>
+        <v>-12</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -1046,27 +1042,27 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>456</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44516.63884259259</v>
+        <v>44452.41231481481</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16.11.2021</t>
+          <t>13.09.2021</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1075,7 +1071,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-609</v>
+        <v>-618</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1083,16 +1079,14 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-609</v>
+        <v>-618</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>30</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -1107,27 +1101,27 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44508.57086805555</v>
+        <v>44450.54478009259</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08.11.2021</t>
+          <t>11.09.2021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>*4556</t>
+          <t>*7197</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1136,7 +1130,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1249</v>
+        <v>-169</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1144,16 +1138,14 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-1249</v>
+        <v>-169</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>62</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -1168,27 +1160,27 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1249</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44473.4015625</v>
+        <v>44440.45575231482</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04.10.2021</t>
+          <t>01.09.2021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>*7197</t>
+          <t>*4556</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1197,7 +1189,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-389.8</v>
+        <v>-345</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1205,14 +1197,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-389.8</v>
+        <v>-345</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Аптеки</t>
@@ -1223,17 +1217,78 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Горздрав</t>
+          <t>Аптека Вита</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>389.8</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44439.51336805556</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31.08.2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>*4556</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-1075.4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-1075.4</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Аптеки</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>5912</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Аптека Вита</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>53</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1075.4</v>
       </c>
     </row>
   </sheetData>
